--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 15. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 15. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:H323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7416/3 SK.  NO: 4  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6134 SOKAK NO:4/C  IŞIKKENT BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -528,6 +573,21 @@
           <t xml:space="preserve"> VATAN MAH. 9107 SK. NO: 5B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -551,6 +611,21 @@
           <t xml:space="preserve"> ADALET   MANAS NO:47 A/KAT:42 BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -574,6 +649,21 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ  MERKEZİ BLOK  NO: 103  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -597,6 +687,21 @@
           <t>YİĞİTLER MAHALLESİ FEVZİ ÇAKMAK CADDESİ NO:5/B/B  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -620,6 +725,21 @@
           <t>KEMALPAŞA O.S.B. MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD. NO:34  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -643,6 +763,21 @@
           <t xml:space="preserve"> ÜNIVERSITE CADDESI NO:112/B  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -666,6 +801,21 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. NO: 23/0 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -689,6 +839,21 @@
           <t>MERİÇ                     MAHALLESİ 5745/3 SOK. NO:5/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -712,6 +877,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK  NO: 47B  İÇ KAPI NO: 2601 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -735,6 +915,21 @@
           <t>KEMALPAŞA                 MAHALLESİ 7416/1 SOKAK NO:23/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -758,6 +953,21 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO: 8  İÇ KAPI NO: 2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -781,6 +991,21 @@
           <t xml:space="preserve"> BASIN SİTESİ MAH. 177/3 SK. ALAN APT NO: 12A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -804,6 +1029,21 @@
           <t>MANSUROĞLU MAHALLESİ 287  SOK. NO:10/1  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -827,6 +1067,21 @@
           <t xml:space="preserve"> SÜTÇÜLER MAH. FABRİKALAR KÜME EVLERİ   NO: 13/1  İÇ KAPI NO: 1 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -850,6 +1105,21 @@
           <t xml:space="preserve"> 10016 SOKAK NO:4  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -873,6 +1143,21 @@
           <t>AOSB MAHALLESİ 10026 SK. NO:30  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> ZAFER SB MAHALLESİ MÜMTAZ SK.  NO: 29/_  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t>MERİÇ                     MAHALLESİ 5747/9 SOKAK NO:10/1/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/4 SK. BALTALI İŞM. A BLOK NO: 8 İÇ KAPI NO: 41 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1329,21 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:20 USTA GIDA Apt.   ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1367,21 @@
           <t>AOSB MAHALLESİ 10040 SK. NO:3  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1405,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. NO:2/K S.S.EGETEKS.KOOP Sit. BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1443,21 @@
           <t xml:space="preserve"> GÜMÜŞPALA MAH. 7019 SK. NO: 33A BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1481,21 @@
           <t>AHMET EFENDİ MAHALLESİ 8923/1 SK. NO: 1  İÇ KAPI NO: 103  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1519,21 @@
           <t>DOĞANLAR                  MAHALLESİ 1401/1 SOKAK ÖZMETSAN METAL TİCARET Apt.  NO: 2 -1/4   BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1557,21 @@
           <t>MERSİNLİ                  MAHALLESİ GAZİLER CADDESİ NO: 367 B  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1595,21 @@
           <t xml:space="preserve"> 2475 SOK. NO:30  GÜLTEPE / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1633,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 2H BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1671,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1341 SK.  NO: 6 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1709,21 @@
           <t>AOSB MAHALLESİ 10002 SK. NO:17 GOLDEN HALICILIK Apt. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1233,6 +1743,21 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1256,6 +1781,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ TERCAN CD. NO:15  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1279,6 +1819,21 @@
           <t>ÇAMDİBİ MAHALLESİ 5745 SOK NO:3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1302,6 +1857,21 @@
           <t xml:space="preserve"> HÜRRİYET MAH. 1072 SK. NO: 41 İÇ KAPI NO: 1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1325,6 +1895,21 @@
           <t xml:space="preserve"> 129/6 SK NO:27  4. SANAYİ SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1348,6 +1933,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. İBRAHİM SARUHANLI Apt.  NO: 33/A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1371,6 +1971,21 @@
           <t xml:space="preserve"> MERİÇ MAH. KEMALPAŞA CAD. NO: 9 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1394,6 +2009,21 @@
           <t xml:space="preserve"> 5802 SOK. NO:58  DAİRE:201 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1417,6 +2047,21 @@
           <t>B.E.G.O.S. 1.BÖLGE MAHALLESİ 3/19 SOKAK NO:9  KAT:4 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1440,6 +2085,21 @@
           <t xml:space="preserve"> 10021 SOK. NO:17  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1463,6 +2123,21 @@
           <t>YEŞİLOVA MAHALLESİ 4156 SK. NO: 79 A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1482,6 +2157,21 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1505,6 +2195,21 @@
           <t>FATİH MAHALLESİ 1213 SOKAK NO: 6 CC GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1528,6 +2233,21 @@
           <t>SALİH OMURTAK MAHALLESİ 9635 SOKAK  NO: 31A  İÇ KAPI NO: A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1551,6 +2271,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAH. GÜNEY SANAYİ CAD.  NO: 20 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1574,6 +2309,21 @@
           <t xml:space="preserve"> BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK  NO: 101 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1597,6 +2347,21 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:25  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1620,6 +2385,21 @@
           <t xml:space="preserve"> TUNA MAH. 5615/1 SK.  NO: 41  İÇ KAPI NO: B01 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1643,6 +2423,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5604 SK. NO: 22 İÇ KAPI NO: A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1666,6 +2461,21 @@
           <t xml:space="preserve"> 10038 SOK. NO:3/3-C  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1689,6 +2499,21 @@
           <t>KEMALPAŞA MAHALLESİ CUMAOVASI CAD. NO: 1B MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1712,6 +2537,21 @@
           <t xml:space="preserve"> BALATÇIK MAH. 8950/5 SK.  NO: 2D ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1735,6 +2575,21 @@
           <t xml:space="preserve"> 4162 SOK. NO:40/A  ALTINDAĞ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1758,6 +2613,21 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO:10  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1781,6 +2651,21 @@
           <t>MİMAR SİNAN MAHALLESİ 1421 SOKAK  ERTÖZ BLOK  NO: 39  İÇ KAPI NO: 4  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1800,6 +2685,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1823,6 +2723,21 @@
           <t>ADATEPE                   MAHALLESİ YAHYA KEMAL BEYATLI CADDESİ NO:20/1-2-3-4 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1846,6 +2761,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748/1 SK. NO: 30 İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1869,6 +2799,21 @@
           <t>ZAFER                     MAHALLESİ 4303 SOKAK  NO: 7A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1892,6 +2837,21 @@
           <t>İSMET KAPTAN MAHALLESİ 1362 SOK. NO:30/501  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1915,6 +2875,21 @@
           <t xml:space="preserve"> ANAFARTALAR CADDESİ NO:600  / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1938,6 +2913,21 @@
           <t xml:space="preserve"> EFELER MAHALLESİ HAYRETTİN PAŞA CAD. NERMİN HANIM APT.  NO: 88 A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1961,6 +2951,21 @@
           <t xml:space="preserve"> KESTELLİ CADDESİ NO:5/P-7 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1984,6 +2989,21 @@
           <t>GÖLCÜKLER MAHALLESİ İSTASYON CAD. NO:55  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2007,6 +3027,21 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2030,6 +3065,21 @@
           <t xml:space="preserve"> CUMHURİYET MAH. 6692 SK. NO: 5  İÇ KAPI NO: 1 KARŞIYAKA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2053,6 +3103,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/11 SK.  NO: 16  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2072,6 +3137,21 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2095,6 +3175,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. GAZİ BUL. GAZİ İŞHANI NO: 66 İÇ KAPI NO: 702 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2114,6 +3209,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2137,6 +3247,21 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK NO:10/0  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2160,6 +3285,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/1 SK. NO: 1 İÇ KAPI NO: 21 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2183,6 +3323,21 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:14  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2206,6 +3361,21 @@
           <t>ÖZGÜR MAHALLESİ 3949 SK. NO:1 A KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2229,6 +3399,21 @@
           <t xml:space="preserve"> 10014 SOK. NO:1  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2252,6 +3437,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748 SK.  NO: 57  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2275,6 +3475,21 @@
           <t>ADATEPE MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO: 9 A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2298,6 +3513,21 @@
           <t xml:space="preserve"> ANADOLU CADDESİ NO:40  KAT:7 DAİRE:702 BAYRAKLI KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2321,6 +3551,21 @@
           <t>İSMET KAPTAN MAHALLESİ 1369 SK. NO:42  DAİRE:301 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2344,6 +3589,21 @@
           <t>MERİÇ                     MAHALLESİ 5745/3 SOK. NO: 9  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2367,6 +3627,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ NO: 43 İÇ KAPI NO: 32 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2390,6 +3665,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/2 SK.  NO: 25  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2409,6 +3699,21 @@
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2432,6 +3737,21 @@
           <t xml:space="preserve"> AKASYA SOKAK NO:6/3 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2455,6 +3775,21 @@
           <t xml:space="preserve"> 5500 SOKAK NO:14/C-D IRMAK PLAZA ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2478,6 +3813,21 @@
           <t>POSTACILAR MAHALLESİ 7600  SOK. NO:144/A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2501,6 +3851,21 @@
           <t xml:space="preserve"> 746/10 SK NO:4 MTK SİTESİ ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2524,6 +3889,21 @@
           <t xml:space="preserve"> 1333 SOKAK NO:8 NECATİ BEY BULV. ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2547,6 +3927,21 @@
           <t>TUNA MAHALLESİ SANAT CADDESİ NO: 17  İÇ KAPI NO: 120  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2566,6 +3961,21 @@
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2589,6 +3999,21 @@
           <t>BİRLİK                    MAHALLESİ KEMALPAŞA CADDESI NO: 283 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2612,6 +4037,21 @@
           <t xml:space="preserve"> 646 SOK. NO:20  ÇAMDİBİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2635,6 +4075,21 @@
           <t>FATİH                     MAHALLESİ 1194 SOKAK NO:6  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2658,6 +4113,21 @@
           <t>SELVİLİ MAHALLESİ 4070 SK. NO:24/A  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2681,6 +4151,21 @@
           <t>BUCA OSB MAHALLESİ 2/20 SOKAK NO:29 BEGOS SİT. BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2704,6 +4189,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10052 SK.  NO: 4/2  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2727,6 +4227,21 @@
           <t xml:space="preserve"> 10026 SOKAK NO:30  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2750,6 +4265,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746 SK. NO: 48 İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2773,6 +4303,21 @@
           <t xml:space="preserve"> AOSB  10015  NO:11 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2796,6 +4341,21 @@
           <t xml:space="preserve"> 3/20 SK NO:1  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2819,6 +4379,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748/6 SK.  NO: 5  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2842,6 +4417,21 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. NO: 36  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2865,6 +4455,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5745/7 SK. NO: 3 İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2888,6 +4493,21 @@
           <t>YEŞİLOVA MAHALLESİ KAMİL TUNCA CAD. NO:265/201  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2911,6 +4531,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 2 CAD. NO:135  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2934,6 +4569,21 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:94  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2957,6 +4607,21 @@
           <t>TUNA                      MAHALLESİ SANAT CADDESI NO:17/125  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2980,6 +4645,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1203/5 SK. NO: 1B İÇ KAPI NO: 203 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3003,6 +4683,21 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3026,6 +4721,21 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:47  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3049,6 +4759,21 @@
           <t>İTOB OSB MAHALLESİ 10012 SK. NO: 5 MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3072,6 +4797,21 @@
           <t xml:space="preserve"> FATİH MAH. 1194/1 SK. NO: 4 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3095,6 +4835,21 @@
           <t>FATİH MAHALLESİ 1190 SK. NO: 3A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3118,6 +4873,21 @@
           <t xml:space="preserve"> BARBAROS MAHALLESİ 5301/1 SK.  NO: 32/31  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3141,6 +4911,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/3 SK.  NO: 5  İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3164,6 +4949,21 @@
           <t xml:space="preserve"> 1203/2 SOK.  HALKAPINAR / İZMİR</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3187,6 +4987,21 @@
           <t xml:space="preserve"> 1202/1 SK. NO:54/B  YENİŞEHİR / İZMİR</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3210,6 +5025,21 @@
           <t xml:space="preserve"> 26 AĞUSTOS MAH. 2373 SK. NO: 6/1 İÇ KAPI NO: 1 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3233,6 +5063,21 @@
           <t>SELVİLİ MAHALLESİ 4019/3 SOK. BORNOVA BLOK  NO: 3D KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3256,6 +5101,21 @@
           <t xml:space="preserve"> GAZİ MAHALLESİ 28/24 SK. NO: 7 B/ GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3279,6 +5139,21 @@
           <t xml:space="preserve"> 5747/10 SOKAK NO:16  M.T.K.SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3302,6 +5177,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/11 SK. NO: 2 İÇ KAPI NO: 4 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3325,6 +5215,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK.  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3348,6 +5253,21 @@
           <t xml:space="preserve"> ERZENE MAH. 57 SK. NO: 13 İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3371,6 +5291,21 @@
           <t>AKDENİZ                   MAHALLESİ 1343 SOKAK NO:13  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3394,6 +5329,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BLV. NO: 3 2/801 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3417,6 +5367,21 @@
           <t>FATİH                     MAHALLESİ ÇAMLIK CADDESİ NO:6   İÇ KAPI NO: 1 GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3440,6 +5405,21 @@
           <t xml:space="preserve"> 5 SOKAK NO:6  KÜÇÜK SANAYİ KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3463,6 +5443,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/5 SK. NO: 17  İÇ KAPI NO: 11 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3486,6 +5481,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5748/3 SK.  NO: 8  İÇ KAPI NO: 3 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3509,6 +5519,21 @@
           <t>EGEMENLİK MAHALLESİ 6115 SOKAK NO:20  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3532,6 +5557,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5745/1 SK. NO: 3/1 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3555,6 +5595,21 @@
           <t xml:space="preserve"> ŞAİR EŞREF BULVARI NO:22  DAİRE:107 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3578,6 +5633,21 @@
           <t>AKDENİZ                   MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:73/A  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3601,6 +5671,21 @@
           <t xml:space="preserve"> 4.SANAYİ SİTESİ 129/4 SOK.         NO:1/ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3624,6 +5709,21 @@
           <t>SELVİLİ MAHALLESİ 4019/10 SOKAK  KONYA BLOK  NO: 3B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3647,6 +5747,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5745/3 SK. NO: 9 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3670,6 +5785,21 @@
           <t>FIRAT                     MAHALLESİ 289/44 SK. ALKAN BLOK  NO: 15  İÇ KAPI NO: 1 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3693,6 +5823,21 @@
           <t>BUCAOSB MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO:138 BEGOS SİTESİ   BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3716,6 +5861,21 @@
           <t xml:space="preserve"> 747 SOK. NO:48 6025 ADA  ÇAMDİBİ M.T.K.SİTESİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3739,6 +5899,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1334 SK. NO: 9 İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3762,6 +5937,21 @@
           <t>MERİÇ                     MAHALLESİ 5719 SOKAK NO: 12C BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3785,6 +5975,21 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO:3/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3808,6 +6013,21 @@
           <t xml:space="preserve"> MAHALLESİ 10016 SOKAK NO:4  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3831,6 +6051,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6124/1 SK. NO: 10 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3854,6 +6089,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/13 SOKAK NO: 13  İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3877,6 +6127,21 @@
           <t>MERİÇ                     MAHALLESİ 5748/3 SOKAK NO:7/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3900,6 +6165,21 @@
           <t xml:space="preserve"> SEYHAN MAH. 630/4 SK. NO: 34 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3923,6 +6203,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5747/10 SK.  NO: 26/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3942,6 +6237,21 @@
         </is>
       </c>
       <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3965,6 +6275,21 @@
           <t xml:space="preserve"> ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:132 GÜZELBAHÇE/İZMİR  / </t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3988,6 +6313,21 @@
           <t xml:space="preserve"> BUCAOSB MAH. 2/20 SK.  NO: 33 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4011,6 +6351,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 1V  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4034,6 +6389,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK.  S.S.EGETEKS.KOOP SİTESİ  NO: 1B BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4057,6 +6427,21 @@
           <t xml:space="preserve"> 10040 SOKAK CADDE:45 NO:24 A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4080,6 +6465,21 @@
           <t xml:space="preserve"> ADALET MAH. 2132/2 SK.  NO: 3  İÇ KAPI NO: 31 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4103,6 +6503,21 @@
           <t>AKDENİZ                   MAHALLESİ 1329 SOKAK ÇELEBİ HANI Apt.  NO: 3  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4126,6 +6541,21 @@
           <t>HURŞİDİYE                 MAHALLESİ 1303 SOKAK NO: 15A  İÇ KAPI NO: A KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4149,6 +6579,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/10 SK. NO: 6 İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4172,6 +6617,21 @@
           <t xml:space="preserve"> 412 SOK. NO:8/A BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4195,6 +6655,21 @@
           <t xml:space="preserve"> 5748 SOKAK NO:19 M.T.K SİTESİ ÇAMDİBİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4218,6 +6693,21 @@
           <t>AOSB MAHALLESİ 10030 SOKAK NO: 16  İÇ KAPI NO: 103 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4241,6 +6731,21 @@
           <t xml:space="preserve"> 2.CAD. NO:186  KISIKKÖY / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4264,6 +6769,21 @@
           <t>AOSB MAHALLESİ 10030 SOKAK NO: 16  İÇ KAPI NO: 103 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4287,6 +6807,21 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:70  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4310,6 +6845,21 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:70  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4333,6 +6883,21 @@
           <t xml:space="preserve"> 129/16 SOKAK NO:2  EVKA-3 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4356,6 +6921,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4076 SK.  NO: 19  İÇ KAPI NO: 21 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4379,6 +6959,21 @@
           <t xml:space="preserve"> İNÖNÜ MAH. 8981/4 SK. NO: 4A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4402,6 +6997,21 @@
           <t>9 EYLÜL MAHALLESİ 337 SOKAK NO:13  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4425,6 +7035,21 @@
           <t xml:space="preserve"> 9 EYLÜL MAHALLESİ 337 SOKAK NO:13 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4448,6 +7073,21 @@
           <t>9 EYLÜL MAHALLESİ 337 SOKAK NO:13/13  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4471,6 +7111,21 @@
           <t>İTOB OSB MAHALLESİ 10025 SOKAK NO:21  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4494,6 +7149,21 @@
           <t xml:space="preserve"> KARABAĞLAR MAHALLESİ 5759/3 SK.  NO: 8/_  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4517,6 +7187,21 @@
           <t xml:space="preserve"> KÜLTÜR MAH. 1382 SK. KARDEŞLER NO: 34A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4540,6 +7225,21 @@
           <t>ADALET MAHALLESİ MANAS  FOLKART TOWERS BLOK  NO:47B  İÇ KAPI NO:3406 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4563,6 +7263,21 @@
           <t xml:space="preserve"> 7004/7 SK. NO:4/B -4/C PINARBAŞI BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4586,6 +7301,21 @@
           <t xml:space="preserve"> FATİH MAH. 1191 SK. NO: 10 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4609,6 +7339,21 @@
           <t xml:space="preserve"> SEYHAN MAH. 711/3 SK.  NO: 7A  İÇ KAPI NO: A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4632,6 +7377,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/13 SOKAK NO:3 İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4655,6 +7415,21 @@
           <t xml:space="preserve"> 745/1 SOK. NO:2/21 M.T.K.SİTESİ ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4678,6 +7453,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/12 SK. NO: 8 İÇ KAPI NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4701,6 +7491,21 @@
           <t>ADALET MAHALLESİ 1594/9  SOK. NO: 2A  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4724,6 +7529,21 @@
           <t xml:space="preserve"> SEYHAN MAHALLESİ 659/6 SK.  NO: 11 B/_  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4747,6 +7567,21 @@
           <t xml:space="preserve"> ADALET   MANAS NO:47/A/42. KAT BAYRAKLI/İZMİR  / </t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4770,6 +7605,21 @@
           <t xml:space="preserve"> 1368 SOK. NO:1  BASMANE / İZMİR</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4793,6 +7643,21 @@
           <t>MERİÇ                     MAHALLESİ 5719 SOKAK NO:20  KAT:1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4816,6 +7681,21 @@
           <t xml:space="preserve"> ÇANKAYA 10 NOLU OTOPARK NO:500/C  Z-2 ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4839,6 +7719,21 @@
           <t xml:space="preserve"> 2829 SOK. NO:26  1.SANAYİ SİTESİ BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4862,6 +7757,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO:12/2  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4885,6 +7795,21 @@
           <t xml:space="preserve"> YAMANLAR MAH. 7301 SK. NO: 84/1 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4908,6 +7833,21 @@
           <t xml:space="preserve"> GÖKSU MAHALLESİ 690/7 SK.  NO: 6 A/A  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4931,6 +7871,21 @@
           <t xml:space="preserve"> 4. CAD. NO:143  KISIK SANAYİ SİTESİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4954,6 +7909,21 @@
           <t>BUCAAOSB MAHALLESİ MAHALLESİ 3/20 SK NO: 11 BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4977,6 +7947,21 @@
           <t>MERİÇ                     MAHALLESİ 5746 SOKAK NO:74  DAİRE:2 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5000,6 +7985,21 @@
           <t xml:space="preserve"> FATİH  1213  NO:NO:10  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5023,6 +8023,21 @@
           <t xml:space="preserve"> GAZİ MAH. 16 SK.  NO: 9C GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5046,6 +8061,21 @@
           <t>MERİÇ                     MAHALLESİ 5747/2 SOKAK  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5069,6 +8099,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/2 SK.  NO: 43  İÇ KAPI NO: B1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5088,6 +8133,21 @@
         </is>
       </c>
       <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5111,6 +8171,21 @@
           <t>AKDENİZ                   MAHALLESİ 1332 SOKAK NO:27  KAT:2 DAİRE:201 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5134,6 +8209,21 @@
           <t xml:space="preserve"> ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. KAZMİRCİ İŞ MERKEZİ BLOK  NO: 20  İÇ KAPI NO: 502 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5157,6 +8247,21 @@
           <t>ÇAMDİBİ MAHALLESİ 5747/1 SOK. NO:4 M.T.K SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5180,6 +8285,21 @@
           <t xml:space="preserve"> MEVLANA MAH. 1712/4 SK. NO: 2 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5203,6 +8323,21 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CAD. HALİL ALKAN HAN BLOK  NO: 165  İÇ KAPI NO: 12 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5226,6 +8361,21 @@
           <t xml:space="preserve"> ÇAMLIKULE MAH. 220/42 SK. NO: 2A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5249,6 +8399,21 @@
           <t xml:space="preserve"> 360/1 SOKAK NO:14  2.SANAYİ SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5272,6 +8437,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4068/1 SK. NO: 7A BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5295,6 +8475,21 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:19/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5318,6 +8513,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 1 CADDE NO:137  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5341,6 +8551,21 @@
           <t xml:space="preserve"> FATİH MAH. 1178 SK. NO: 5/1 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5364,6 +8589,21 @@
           <t xml:space="preserve"> 1333 SOKAK NO:8  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5387,6 +8627,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/1  SOK. NO:1/215  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5410,6 +8665,21 @@
           <t xml:space="preserve"> SOĞUKPINAR MAH. 268 SK. NO: 12 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5433,6 +8703,21 @@
           <t>KONAK                     MAHALLESİ 853 SOKAK ÖZYURTSEVER İŞHANI BLOK  NO: 13  DAİRE:402 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5456,6 +8741,21 @@
           <t>AOSB MAHALLESİ 10028 SK. NO:4 BİLİNMİYOR Apt.   ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5479,6 +8779,21 @@
           <t xml:space="preserve"> İAOSB   MUSTAFA KEMAL ATATÜRK  NO:54 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5502,6 +8817,21 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO:47/B (FOLKART TOWERS)KAT:26 DAİRE:2604-2605 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5525,6 +8855,21 @@
           <t xml:space="preserve"> 10002 SOKAK NO:29  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5548,6 +8893,21 @@
           <t xml:space="preserve"> AKINCILAR MAH. 565/4 SK. NO: 2-6 İÇ KAPI NO: 7 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5571,6 +8931,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 5822 SOKAK NO:67  KARABAĞLAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5594,6 +8969,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESI NO:8  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5617,6 +9007,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 2S BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5640,6 +9045,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5663,6 +9083,21 @@
           <t xml:space="preserve"> 5618 SOKAK NO:4 K.2-3 ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5686,6 +9121,21 @@
           <t xml:space="preserve"> 5747/4 SOKAK NO:4  MTK SİTESİ ALTINDAĞ / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5709,6 +9159,21 @@
           <t xml:space="preserve"> OĞLANANASI ATATÜRK MAH. 7036/2 SK. NO: 11 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5732,6 +9197,21 @@
           <t xml:space="preserve"> FATİH MAH. 1141 SK.  NO: 3 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5755,6 +9235,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/4 SK. BALTALI İŞM. A BLOK Apt.  NO: 8/31   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5778,6 +9273,21 @@
           <t xml:space="preserve"> DOĞANLAR MAHALLESİ 1497 SOKAK NO:30 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5801,6 +9311,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL.  NO: 39  İÇ KAPI NO: 2511 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5824,6 +9349,21 @@
           <t xml:space="preserve"> FATİH MAHALLESİ 1194 SK.  NO: 6  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5847,6 +9387,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 2A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5870,6 +9425,21 @@
           <t xml:space="preserve"> ANKARA ASFALTI 26. KM KUYUCAK YOLU KÜMEEVLER NO.226 KEMALPAŞA O.S.B.  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5893,6 +9463,21 @@
           <t>MERİÇ                     MAHALLESİ 5745 SOKAK NO: 15/2 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5916,6 +9501,21 @@
           <t xml:space="preserve"> ANAFARTALAR CADDESİ NO:600/A  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5939,6 +9539,21 @@
           <t xml:space="preserve"> BUCAOSB MAH. 2/20 SK. NO: 23 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5962,6 +9577,21 @@
           <t xml:space="preserve"> ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5985,6 +9615,21 @@
           <t xml:space="preserve"> FATİH MAHALLESİ EGE CAD.  NO: 18/A  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6004,6 +9649,21 @@
         </is>
       </c>
       <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6027,6 +9687,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:15/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6050,6 +9725,21 @@
           <t xml:space="preserve"> ADATEPE  3/18  NO:1/T BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6073,6 +9763,21 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO:49/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6096,6 +9801,21 @@
           <t>KESTELLİ MAHALLESİ KESTELLİ CAD. BAŞDURAK IS HANI BLOK  NO: 5  İÇ KAPI NO: 218 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6119,6 +9839,21 @@
           <t xml:space="preserve"> BUCAOSB MAHALLESİ 2/20 SK.  NO: 41  BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6142,6 +9877,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAHALLESİ YAVUZ SELİM CAD.  NO: 15/11  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6165,6 +9915,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 101 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6188,6 +9953,21 @@
           <t>BOSTANLI                  MAHALLESİ ŞEHİTLER BULVARI TÜRKER BLOK  NO: 10A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6211,6 +9991,21 @@
           <t xml:space="preserve"> MALTEPE MAH. 8102 SK. NO: 28A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6234,6 +10029,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4174 SOKAK NO:6/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6257,6 +10067,21 @@
           <t xml:space="preserve"> SOĞUKKUYU MAH. 1595 SK. NO: 1 İÇ KAPI NO: 20 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6276,6 +10101,21 @@
         </is>
       </c>
       <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6299,6 +10139,21 @@
           <t>LİMONTEPE MAHALLESİ 9700 SK. NO:11/B  B  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6322,6 +10177,21 @@
           <t xml:space="preserve"> FATİH MAH. ÇAMLIK CAD. NO: 7/1B GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6345,6 +10215,21 @@
           <t xml:space="preserve"> YALI MAHALLESİ 6523 SK.  NO: 32 CB  KARŞIYAKA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6368,6 +10253,21 @@
           <t xml:space="preserve"> AOSB MAH. 10023 SK.  NO: 4 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6391,6 +10291,21 @@
           <t xml:space="preserve"> HALKAPINAR MAH. 1348 SK. TEKNİK MALZEME İŞM. NO: 5 İÇ KAPI NO: 304 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6414,6 +10329,21 @@
           <t xml:space="preserve"> HALİLBEYLİ OSB MAH. NİF CAD.  NO: 5 KEMALPAŞA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -6437,6 +10367,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/13 SK. NO: 18 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -6460,6 +10405,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6147 SK. NO: 16 İÇ KAPI NO: 2 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -6483,6 +10443,21 @@
           <t xml:space="preserve"> KILIÇ REİS MAH. İNÖNÜ CAD. ALİ PARSAN NO: 214A KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -6506,6 +10481,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ ANAFARTALAR CADDESİ NO:18  KISIKKÖY SANAYİ SİTESİ MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -6529,6 +10519,21 @@
           <t xml:space="preserve"> 98 SOK. NO:6/8  PINARBAŞI BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -6552,6 +10557,21 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:6/63  Semt Seçiniz KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -6575,6 +10595,21 @@
           <t xml:space="preserve"> 863 SOKAK NO:41  KEMERALTI KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -6598,6 +10633,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1G BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -6621,6 +10671,21 @@
           <t xml:space="preserve"> 854 SOKAK NO:21  KEMERALTI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -6644,6 +10709,21 @@
           <t>MERİÇ MAHALLESİ 5746/10 SK. NO:10/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -6667,6 +10747,21 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SOKAK NO:35/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -6690,6 +10785,21 @@
           <t xml:space="preserve"> AOSB ESKİ HAVAALANI CAD.   NO:NO:188/1 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -6713,6 +10823,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAH. 4076 SK.  NO: 19  İÇ KAPI NO: 11 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -6736,6 +10861,21 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 124G  KEMALPAŞA       / İZMİR</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -6759,6 +10899,21 @@
           <t xml:space="preserve"> 10007 SOKAK NO:9  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -6782,6 +10937,21 @@
           <t>KARABAĞLAR MAHALLESİ 5759/6 SOK. ALİ NECATİ BURS İŞ MERKEZİ B BLOK  NO: 2L  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6805,6 +10975,21 @@
           <t xml:space="preserve"> 1329 SOKAK NO:6  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6828,6 +11013,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/7 SOKAK NO:12 İÇ KAPI NO: 11  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6851,6 +11051,21 @@
           <t xml:space="preserve"> SASALI MERKEZ MAH. 45 SK. 7.SANAYI SİTESİ K BLOK NO: 7A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6874,6 +11089,21 @@
           <t>AOSB MAHALLESİ 10039 SK. NO:15  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6897,6 +11127,21 @@
           <t xml:space="preserve"> 10036 SOKAK NO:4  A.O.S.B. ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6920,6 +11165,21 @@
           <t xml:space="preserve"> AOSB  10007  NO:9 ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6943,6 +11203,21 @@
           <t xml:space="preserve"> 10007      ATATÜRK ORGANİZE SANAYİ BÖLGESİ   NO:NO:9/ ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6966,6 +11241,21 @@
           <t xml:space="preserve"> AKASYA        NO:6/3 BALÇOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6985,6 +11275,21 @@
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -7008,6 +11313,21 @@
           <t xml:space="preserve"> SEYHAN MAH. 661 SK. NO: 36 İÇ KAPI NO: 2 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -7031,6 +11351,21 @@
           <t xml:space="preserve"> İTOB OSB MAH. 10012 SK. NO: 7 MENDERES / İZMİR  / </t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -7054,6 +11389,21 @@
           <t>DOKUZ EYLÜL MAHALLESİ 692 SOK. NO:14/B1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -7077,6 +11427,21 @@
           <t xml:space="preserve"> KAMİL TUNCA CADDESİ NO:200/B  ALTINDAĞ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -7100,6 +11465,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/15 SK. NO: 10 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -7123,6 +11503,21 @@
           <t xml:space="preserve"> 2836 SOKAK NO:17  1.SANAYİ SİTESİ KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -7146,6 +11541,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6122 SK.  NO: 16/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -7169,6 +11579,21 @@
           <t>AOSB MAHALLESİ 10002 SK. NO: 10  ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -7192,6 +11617,21 @@
           <t>ADATEPE                   MAHALLESİ 3/18 SK. NO:2/E  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -7215,6 +11655,21 @@
           <t>MERİÇ                     MAHALLESİ 5748/6 SOKAK NO: 11/1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -7238,6 +11693,21 @@
           <t xml:space="preserve"> AKINCILAR MAH. 548 SK.  NO: 12A BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -7261,6 +11731,21 @@
           <t xml:space="preserve"> 853 SOKAK NO:12 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -7284,6 +11769,21 @@
           <t>MERİÇ                     MAHALLESİ 5746/9 SOKAK NO:10 İÇ KAPI NO: 1 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -7307,6 +11807,21 @@
           <t xml:space="preserve"> YEŞİLBAĞLAR MAH. 637/33 SK. NO: 8  İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -7330,6 +11845,21 @@
           <t xml:space="preserve"> 4324 SOKAK NO:30  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -7353,6 +11883,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5746/10 SK.  NO: 11  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -7376,6 +11921,21 @@
           <t xml:space="preserve"> AOSB MAH. 10039 SK. NO: 26 ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -7399,6 +11959,21 @@
           <t xml:space="preserve"> 8780/7 SK. NO:11 ATA SANAYI ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -7422,6 +11997,21 @@
           <t xml:space="preserve"> KEMALPAŞA OSB MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD.  NO: 34  KEMALPAŞA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -7445,6 +12035,21 @@
           <t>YEŞİLOVA                  MAHALLESİ 4088 SOKAK GÜVEN Apt.  NO: 90/A BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -7468,6 +12073,21 @@
           <t>MERİÇ MAHALLESİ 5748/6 SK. MTK15 / 1-2 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -7491,6 +12111,21 @@
           <t xml:space="preserve"> YEŞİLOVA MAHALLESİ 4039/4 SK.  NO: 2 A  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -7514,6 +12149,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1326 SK. NO: 8 İÇ KAPI NO: Z1 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -7537,6 +12187,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5747/11 SK.  NO: 9/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -7560,6 +12225,21 @@
           <t xml:space="preserve"> ERDEM CADDESI NO:70/ B BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -7583,6 +12263,21 @@
           <t xml:space="preserve"> AKDENİZ MAH. 1329 SK. SAFTERBEY İŞHANI NO: 21 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -7606,6 +12301,21 @@
           <t xml:space="preserve"> AOSB MAHALLESİ 10006/1 SK. SEDEF VATKA APT.  NO: 31  ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -7629,6 +12339,21 @@
           <t>AOSB MAHALLESİ 10006/1 SK. KALMAKSAN Apt.  NO: 35/0 ÇİĞLİ           / İZMİR</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -7652,6 +12377,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -7675,6 +12415,21 @@
           <t xml:space="preserve"> MANSUROĞLU MAH. 286/3 SK. DEDEMHAN BLOK  NO: 3  İÇ KAPI NO: 7 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -7698,6 +12453,21 @@
           <t>HURŞİDİYE                 MAHALLESİ 1306 SOKAK NO:14/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -7721,6 +12491,21 @@
           <t xml:space="preserve"> KEMALPAŞA CADDESI NO:2  / İZMİR</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -7744,6 +12529,21 @@
           <t xml:space="preserve"> ABDİ İPEKÇİ MAH. 3714 SK. NO: 1-1A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -7767,6 +12567,21 @@
           <t xml:space="preserve"> YEŞİLÇAM MAHALLESİ 2001 SOKAK NO:132 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -7790,6 +12605,21 @@
           <t xml:space="preserve"> 5743/1 SOK. NO:8 MTK SİTESİ ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -7811,6 +12641,21 @@
       <c r="E323" t="inlineStr">
         <is>
           <t xml:space="preserve"> ADATEPE MAH. 3/10 SK.  NO: 1A BUCA / İZMİR  / </t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 15. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 15. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="46" customWidth="1" min="7" max="7"/>
     <col width="114" customWidth="1" min="8" max="8"/>
     <col width="103" customWidth="1" min="9" max="9"/>
-    <col width="51" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>KEMALPAŞA MAHALLESİ 7416/3 SK. NO: 4 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>EGEMENLİK MAHALLESİ 6134 SOKAK NO:4/C IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>VATAN MAH. 9107 SK. NO: 5B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>BEYAZEVLER MAHALLESİ AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 103 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>YİĞİTLER MAHALLESİ FEVZİ ÇAKMAK CADDESİ NO:5/B/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>KEMALPAŞA O.S.B. MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD. NO:34 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. NO: 23/0 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>MERİÇ MAHALLESİ 5745/3 SOK. NO:5/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>KEMALPAŞA MAHALLESİ 7416/1 SOKAK NO:23/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO: 8 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>BASIN SİTESİ MAH. 177/3 SK. ALAN APT NO: 12A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>MANSUROĞLU MAHALLESİ 287 SOK. NO:10/1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>SÜTÇÜLER MAH. FABRİKALAR KÜME EVLERİ NO: 13/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>AOSB MAHALLESİ 10026 SK. NO:30 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>ZAFER SB MAHALLESİ MÜMTAZ SK. NO: 29/_ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>MERİÇ MAHALLESİ 5747/9 SOKAK NO:10/1/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>HALKAPINAR MAH. 1203/4 SK. BALTALI İŞM. A BLOK NO: 8 İÇ KAPI NO: 41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:20 USTA GIDA Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>AOSB MAHALLESİ 10040 SK. NO:3 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. NO:2/K S.S.EGETEKS.KOOP Sit. BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>GÜMÜŞPALA MAH. 7019 SK. NO: 33A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>AHMET EFENDİ MAHALLESİ 8923/1 SK. NO: 1 İÇ KAPI NO: 103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>DOĞANLAR MAHALLESİ 1401/1 SOKAK ÖZMETSAN METAL TİCARET Apt. NO: 2 -1/4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>MERSİNLİ MAHALLESİ GAZİLER CADDESİ NO: 367 B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 2H BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>AKDENİZ MAH. 1341 SK. NO: 6 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>AOSB MAHALLESİ 10002 SK. NO:17 GOLDEN HALICILIK Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ TERCAN CD. NO:15 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>ÇAMDİBİ MAHALLESİ 5745 SOK NO:3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>HÜRRİYET MAH. 1072 SK. NO: 41 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. İBRAHİM SARUHANLI Apt. NO: 33/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>MERİÇ MAH. KEMALPAŞA CAD. NO: 9 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>B.E.G.O.S. 1.BÖLGE MAHALLESİ 3/19 SOKAK NO:9 KAT:4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>YEŞİLOVA MAHALLESİ 4156 SK. NO: 79 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>FATİH MAHALLESİ 1213 SOKAK NO: 6 CC GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>SALİH OMURTAK MAHALLESİ 9635 SOKAK NO: 31A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>KEMALPAŞA OSB MAH. GÜNEY SANAYİ CAD. NO: 20 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>BEYAZEVLER MAH. AKÇAY CAD. OPTİMUM ALIŞVERİŞ MERKEZİ BLOK NO: 101 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:25 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>TUNA MAH. 5615/1 SK. NO: 41 İÇ KAPI NO: B01 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>MERİÇ MAH. 5604 SK. NO: 22 İÇ KAPI NO: A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>KEMALPAŞA MAHALLESİ CUMAOVASI CAD. NO: 1B MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>BALATÇIK MAH. 8950/5 SK. NO: 2D ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>KARACAOĞLAN MAHALLESİ BORNOVA CAD. NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>MİMAR SİNAN MAHALLESİ 1421 SOKAK ERTÖZ BLOK NO: 39 İÇ KAPI NO: 4 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>ADATEPE MAHALLESİ YAHYA KEMAL BEYATLI CADDESİ NO:20/1-2-3-4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>MERİÇ MAH. 5748/1 SK. NO: 30 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>ZAFER MAHALLESİ 4303 SOKAK NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1362 SOK. NO:30/501 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>EFELER MAHALLESİ HAYRETTİN PAŞA CAD. NERMİN HANIM APT. NO: 88 A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>GÖLCÜKLER MAHALLESİ İSTASYON CAD. NO:55 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>ADALET MAHALLESİ ANADOLU CADDESİ MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>CUMHURİYET MAH. 6692 SK. NO: 5 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>MERİÇ MAH. 5747/11 SK. NO: 16 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>AKDENİZ MAH. GAZİ BUL. GAZİ İŞHANI NO: 66 İÇ KAPI NO: 702 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>EGEMENLİK MAHALLESİ 6108 SOKAK NO:10/0 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>MERİÇ MAH. 5746/1 SK. NO: 1 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>AOSB MAHALLESİ 10001 SK. NO:14 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>ÖZGÜR MAHALLESİ 3949 SK. NO:1 A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>MERİÇ MAH. 5748 SK. NO: 57 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ADATEPE MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO: 9 A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1369 SK. NO:42 DAİRE:301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>MERİÇ MAHALLESİ 5745/3 SOK. NO: 9 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>AKDENİZ MAH. ŞEHİT FETHİBEY CAD. 99 BASAMAK İŞ MERKEZİ NO: 43 İÇ KAPI NO: 32 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>MERİÇ MAH. 5747/2 SK. NO: 25 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>POSTACILAR MAHALLESİ 7600 SOK. NO:144/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>TUNA MAHALLESİ SANAT CADDESİ NO: 17 İÇ KAPI NO: 120 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>BİRLİK MAHALLESİ KEMALPAŞA CADDESI NO: 283 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>FATİH MAHALLESİ 1194 SOKAK NO:6 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>SELVİLİ MAHALLESİ 4070 SK. NO:24/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>BUCA OSB MAHALLESİ 2/20 SOKAK NO:29 BEGOS SİT. BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>AOSB MAHALLESİ 10052 SK. NO: 4/2 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>MERİÇ MAH. 5746 SK. NO: 48 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>MERİÇ MAH. 5748/6 SK. NO: 5 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>AOSB MAHALLESİ M.KEMAL ATATÜRK BLV. NO: 36 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>MERİÇ MAH. 5745/7 SK. NO: 3 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>YEŞİLOVA MAHALLESİ KAMİL TUNCA CAD. NO:265/201 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 2 CAD. NO:135 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>MERİÇ MAHALLESİ 5747 SOKAK NO:94 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>TUNA MAHALLESİ SANAT CADDESI NO:17/125 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>HALKAPINAR MAH. 1203/5 SK. NO: 1B İÇ KAPI NO: 203 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>CENNETOĞLU MAHALLESİ YEŞİLLİK CAD. SELGEÇEN MODEKO BLOK KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>FATİH MAHALLESİ EGE CAD. NO:47 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>İTOB OSB MAHALLESİ 10012 SK. NO: 5 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>FATİH MAH. 1194/1 SK. NO: 4 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>FATİH MAHALLESİ 1190 SK. NO: 3A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>BARBAROS MAHALLESİ 5301/1 SK. NO: 32/31 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>MERİÇ MAH. 5746/3 SK. NO: 5 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>26 AĞUSTOS MAH. 2373 SK. NO: 6/1 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>SELVİLİ MAHALLESİ 4019/3 SOK. BORNOVA BLOK NO: 3D KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>GAZİ MAHALLESİ 28/24 SK. NO: 7 B/ GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>MERİÇ MAH. 5747/11 SK. NO: 2 İÇ KAPI NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>ERZENE MAH. 57 SK. NO: 13 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>AKDENİZ MAHALLESİ 1343 SOKAK NO:13 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>İSMET KAPTAN MAHALLESİ ŞAİR EŞREF BLV. NO: 3 2/801 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>FATİH MAHALLESİ ÇAMLIK CADDESİ NO:6 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>MERİÇ MAHALLESİ 5746/5 SK. NO: 17 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>MERİÇ MAH. 5748/3 SK. NO: 8 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>EGEMENLİK MAHALLESİ 6115 SOKAK NO:20 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>MERİÇ MAHALLESİ 5745/1 SK. NO: 3/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ NO:73/A ÇANKAYA / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>SELVİLİ MAHALLESİ 4019/10 SOKAK KONYA BLOK NO: 3B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>MERİÇ MAH. 5745/3 SK. NO: 9 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>FIRAT MAHALLESİ 289/44 SK. ALKAN BLOK NO: 15 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>BUCAOSB MAHALLESİ YAHYA KEMAL BEYATLI CAD. NO:138 BEGOS SİTESİ BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>AKDENİZ MAH. 1334 SK. NO: 9 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>MERİÇ MAHALLESİ 5719 SOKAK NO: 12C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>MERİÇ MAHALLESİ 5746/14 SK. NO:3/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5818,11 +5262,6 @@
           <t>MAHALLESİ 10016 SOKAK NO:4 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5866,11 +5305,6 @@
           <t>EGEMENLİK MAH. 6124/1 SK. NO: 10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5914,11 +5348,6 @@
           <t>MERİÇ MAHALLESİ 5746/13 SOKAK NO: 13 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5962,11 +5391,6 @@
           <t>MERİÇ MAHALLESİ 5748/3 SOKAK NO:7/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6010,11 +5434,6 @@
           <t>SEYHAN MAH. 630/4 SK. NO: 34 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6058,11 +5477,6 @@
           <t>MERİÇ MAHALLESİ 5747/10 SK. NO: 26/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6106,11 +5520,6 @@
           <t>ÇELEBİ MAHALLESİ İSTİKBAL CAD. NO:132 GÜZELBAHÇE/İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6154,11 +5563,6 @@
           <t>BUCAOSB MAH. 2/20 SK. NO: 33 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6202,11 +5606,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1V BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6250,11 +5649,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6298,11 +5692,6 @@
           <t>ADALET MAH. 2132/2 SK. NO: 3 İÇ KAPI NO: 31 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6346,11 +5735,6 @@
           <t>AKDENİZ MAHALLESİ 1329 SOKAK ÇELEBİ HANI Apt. NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6394,11 +5778,6 @@
           <t>HURŞİDİYE MAHALLESİ 1303 SOKAK NO: 15A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6442,11 +5821,6 @@
           <t>MERİÇ MAH. 5746/10 SK. NO: 6 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6490,11 +5864,6 @@
           <t>AOSB MAHALLESİ 10030 SOKAK NO: 16 İÇ KAPI NO: 103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6538,11 +5907,6 @@
           <t>AOSB MAHALLESİ 10030 SOKAK NO: 16 İÇ KAPI NO: 103 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6586,11 +5950,6 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:70 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6634,11 +5993,6 @@
           <t>AOSB MAHALLESİ 10016 SK. NO:70 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6682,11 +6036,6 @@
           <t>YEŞİLOVA MAH. 4076 SK. NO: 19 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6730,11 +6079,6 @@
           <t>İNÖNÜ MAH. 8981/4 SK. NO: 4A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6778,11 +6122,6 @@
           <t>9 EYLÜL MAHALLESİ 337 SOKAK NO:13 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6826,11 +6165,6 @@
           <t>9 EYLÜL MAHALLESİ 337 SOKAK NO:13 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6874,11 +6208,6 @@
           <t>9 EYLÜL MAHALLESİ 337 SOKAK NO:13/13 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6922,11 +6251,6 @@
           <t>İTOB OSB MAHALLESİ 10025 SOKAK NO:21 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6970,11 +6294,6 @@
           <t>KARABAĞLAR MAHALLESİ 5759/3 SK. NO: 8/_ KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7018,11 +6337,6 @@
           <t>KÜLTÜR MAH. 1382 SK. KARDEŞLER NO: 34A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7066,11 +6380,6 @@
           <t>ADALET MAHALLESİ MANAS FOLKART TOWERS BLOK NO:47B İÇ KAPI NO:3406 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7114,11 +6423,6 @@
           <t>FATİH MAH. 1191 SK. NO: 10 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7162,11 +6466,6 @@
           <t>SEYHAN MAH. 711/3 SK. NO: 7A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7210,11 +6509,6 @@
           <t>MERİÇ MAHALLESİ 5746/13 SOKAK NO:3 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7258,11 +6552,6 @@
           <t>MERİÇ MAH. 5746/12 SK. NO: 8 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7306,11 +6595,6 @@
           <t>ADALET MAHALLESİ 1594/9 SOK. NO: 2A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7354,11 +6638,6 @@
           <t>SEYHAN MAHALLESİ 659/6 SK. NO: 11 B/_ BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7402,11 +6681,6 @@
           <t>MERİÇ MAHALLESİ 5719 SOKAK NO:20 KAT:1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7450,11 +6724,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO:12/2 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7498,11 +6767,6 @@
           <t>YAMANLAR MAH. 7301 SK. NO: 84/1 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7546,11 +6810,6 @@
           <t>GÖKSU MAHALLESİ 690/7 SK. NO: 6 A/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7594,11 +6853,6 @@
           <t>BUCAAOSB MAHALLESİ MAHALLESİ 3/20 SK NO: 11 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7642,11 +6896,6 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:74 DAİRE:2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7690,11 +6939,6 @@
           <t>GAZİ MAH. 16 SK. NO: 9C GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7738,11 +6982,6 @@
           <t>MERİÇ MAHALLESİ 5747/2 SOKAK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7786,11 +7025,6 @@
           <t>MERİÇ MAH. 5747/2 SK. NO: 43 İÇ KAPI NO: B1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7834,11 +7068,6 @@
           <t>AKDENİZ MAHALLESİ 1332 SOKAK NO:27 KAT:2 DAİRE:201 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7882,11 +7111,6 @@
           <t>ALSANCAK MAH. KIBRIS ŞEHİTLERİ CAD. KAZMİRCİ İŞ MERKEZİ BLOK NO: 20 İÇ KAPI NO: 502 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7930,11 +7154,6 @@
           <t>ÇAMDİBİ MAHALLESİ 5747/1 SOK. NO:4 M.T.K SİTESİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7978,11 +7197,6 @@
           <t>MEVLANA MAH. 1712/4 SK. NO: 2 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8026,11 +7240,6 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CAD. HALİL ALKAN HAN BLOK NO: 165 İÇ KAPI NO: 12 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8074,11 +7283,6 @@
           <t>ÇAMLIKULE MAH. 220/42 SK. NO: 2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8122,11 +7326,6 @@
           <t>YEŞİLOVA MAH. 4068/1 SK. NO: 7A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8170,11 +7369,6 @@
           <t>MERİÇ MAHALLESİ 5746 SOKAK NO:19/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8218,11 +7412,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ 1 CADDE NO:137 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8266,11 +7455,6 @@
           <t>FATİH MAH. 1178 SK. NO: 5/1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8314,11 +7498,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOK. NO:1/215 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8362,11 +7541,6 @@
           <t>SOĞUKPINAR MAH. 268 SK. NO: 12 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8410,11 +7584,6 @@
           <t>KONAK MAHALLESİ 853 SOKAK ÖZYURTSEVER İŞHANI BLOK NO: 13 DAİRE:402 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8458,11 +7627,6 @@
           <t>AOSB MAHALLESİ 10028 SK. NO:4 BİLİNMİYOR Apt. ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8506,11 +7670,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. NO:47/B (FOLKART TOWERS)KAT:26 DAİRE:2604-2605 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8554,11 +7713,6 @@
           <t>AKINCILAR MAH. 565/4 SK. NO: 2-6 İÇ KAPI NO: 7 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8602,11 +7756,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5822 SOKAK NO:67 KARABAĞLAR KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8650,11 +7799,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 2S BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8698,11 +7842,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8746,11 +7885,6 @@
           <t>OĞLANANASI ATATÜRK MAH. 7036/2 SK. NO: 11 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8794,11 +7928,6 @@
           <t>FATİH MAH. 1141 SK. NO: 3 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8842,11 +7971,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/4 SK. BALTALI İŞM. A BLOK Apt. NO: 8/31 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8890,11 +8014,6 @@
           <t>DOĞANLAR MAHALLESİ 1497 SOKAK NO:30 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8938,11 +8057,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8986,11 +8100,6 @@
           <t>FATİH MAHALLESİ 1194 SK. NO: 6 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9034,11 +8143,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 2A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9082,11 +8186,6 @@
           <t>MERİÇ MAHALLESİ 5745 SOKAK NO: 15/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9130,11 +8229,6 @@
           <t>BUCAOSB MAH. 2/20 SK. NO: 23 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9178,11 +8272,6 @@
           <t>ERZENE MAH. GENÇLİK CAD. NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9226,11 +8315,6 @@
           <t>FATİH MAHALLESİ EGE CAD. NO: 18/A GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9274,11 +8358,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:15/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9322,11 +8401,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO:49/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9370,11 +8444,6 @@
           <t>KESTELLİ MAHALLESİ KESTELLİ CAD. BAŞDURAK IS HANI BLOK NO: 5 İÇ KAPI NO: 218 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9418,11 +8487,6 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. NO: 41 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9466,11 +8530,6 @@
           <t>GAZİ OSMAN PAŞA MAHALLESİ YAVUZ SELİM CAD. NO: 15/11 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9514,11 +8573,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9562,11 +8616,6 @@
           <t>BOSTANLI MAHALLESİ ŞEHİTLER BULVARI TÜRKER BLOK NO: 10A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9610,11 +8659,6 @@
           <t>MALTEPE MAH. 8102 SK. NO: 28A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9658,11 +8702,6 @@
           <t>YEŞİLOVA MAHALLESİ 4174 SOKAK NO:6/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9706,11 +8745,6 @@
           <t>SOĞUKKUYU MAH. 1595 SK. NO: 1 İÇ KAPI NO: 20 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9754,11 +8788,6 @@
           <t>LİMONTEPE MAHALLESİ 9700 SK. NO:11/B B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9802,11 +8831,6 @@
           <t>FATİH MAH. ÇAMLIK CAD. NO: 7/1B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9850,11 +8874,6 @@
           <t>YALI MAHALLESİ 6523 SK. NO: 32 CB KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9898,11 +8917,6 @@
           <t>AOSB MAH. 10023 SK. NO: 4 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9946,11 +8960,6 @@
           <t>HALKAPINAR MAH. 1348 SK. TEKNİK MALZEME İŞM. NO: 5 İÇ KAPI NO: 304 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9994,11 +9003,6 @@
           <t>HALİLBEYLİ OSB MAH. NİF CAD. NO: 5 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10042,11 +9046,6 @@
           <t>MERİÇ MAH. 5747/13 SK. NO: 18 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10090,11 +9089,6 @@
           <t>EGEMENLİK MAH. 6147 SK. NO: 16 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10138,11 +9132,6 @@
           <t>KILIÇ REİS MAH. İNÖNÜ CAD. ALİ PARSAN NO: 214A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10186,11 +9175,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ ANAFARTALAR CADDESİ NO:18 KISIKKÖY SANAYİ SİTESİ MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10234,11 +9218,6 @@
           <t>AKDENİZ MAHALLESİ HALİT ZİYA BULVARI NO:6/63 Semt Seçiniz KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10282,11 +9261,6 @@
           <t>ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1G BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10330,11 +9304,6 @@
           <t>MERİÇ MAHALLESİ 5746/10 SK. NO:10/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10378,11 +9347,6 @@
           <t>EGEMENLİK MAHALLESİ 6124/2 SOKAK NO:35/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10426,11 +9390,6 @@
           <t>YEŞİLOVA MAH. 4076 SK. NO: 19 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10474,11 +9433,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 124G KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10522,11 +9476,6 @@
           <t>KARABAĞLAR MAHALLESİ 5759/6 SOK. ALİ NECATİ BURS İŞ MERKEZİ B BLOK NO: 2L KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10570,11 +9519,6 @@
           <t>MERİÇ MAHALLESİ 5746/7 SOKAK NO:12 İÇ KAPI NO: 11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10618,11 +9562,6 @@
           <t>SASALI MERKEZ MAH. 45 SK. 7.SANAYI SİTESİ K BLOK NO: 7A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10666,11 +9605,6 @@
           <t>AOSB MAHALLESİ 10039 SK. NO:15 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10714,11 +9648,6 @@
           <t>SEYHAN MAH. 661 SK. NO: 36 İÇ KAPI NO: 2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10762,11 +9691,6 @@
           <t>İTOB OSB MAH. 10012 SK. NO: 7 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10810,11 +9734,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ 692 SOK. NO:14/B1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10858,11 +9777,6 @@
           <t>MERİÇ MAH. 5746/15 SK. NO: 10 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10906,11 +9820,6 @@
           <t>EGEMENLİK MAHALLESİ 6122 SK. NO: 16/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10954,11 +9863,6 @@
           <t>AOSB MAHALLESİ 10002 SK. NO: 10 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11002,11 +9906,6 @@
           <t>ADATEPE MAHALLESİ 3/18 SK. NO:2/E BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11050,11 +9949,6 @@
           <t>MERİÇ MAHALLESİ 5748/6 SOKAK NO: 11/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11098,11 +9992,6 @@
           <t>AKINCILAR MAH. 548 SK. NO: 12A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11146,11 +10035,6 @@
           <t>MERİÇ MAHALLESİ 5746/9 SOKAK NO:10 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11194,11 +10078,6 @@
           <t>YEŞİLBAĞLAR MAH. 637/33 SK. NO: 8 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11242,11 +10121,6 @@
           <t>MERİÇ MAH. 5746/10 SK. NO: 11 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11290,11 +10164,6 @@
           <t>AOSB MAH. 10039 SK. NO: 26 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11338,11 +10207,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ İZMİR KEMALPAŞA ASFALTI CAD. NO: 34 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11386,11 +10250,6 @@
           <t>YEŞİLOVA MAHALLESİ 4088 SOKAK GÜVEN Apt. NO: 90/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11434,11 +10293,6 @@
           <t>MERİÇ MAHALLESİ 5748/6 SK. MTK15 / 1-2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11482,11 +10336,6 @@
           <t>YEŞİLOVA MAHALLESİ 4039/4 SK. NO: 2 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11530,11 +10379,6 @@
           <t>AKDENİZ MAH. 1326 SK. NO: 8 İÇ KAPI NO: Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11578,11 +10422,6 @@
           <t>MERİÇ MAHALLESİ 5747/11 SK. NO: 9/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11626,11 +10465,6 @@
           <t>AKDENİZ MAH. 1329 SK. SAFTERBEY İŞHANI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11674,11 +10508,6 @@
           <t>AOSB MAHALLESİ 10006/1 SK. SEDEF VATKA APT. NO: 31 ÇİĞLİ/İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11722,11 +10551,6 @@
           <t>AOSB MAHALLESİ 10006/1 SK. KALMAKSAN Apt. NO: 35/0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11770,11 +10594,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11818,11 +10637,6 @@
           <t>MANSUROĞLU MAH. 286/3 SK. DEDEMHAN BLOK NO: 3 İÇ KAPI NO: 7 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11866,11 +10680,6 @@
           <t>HURŞİDİYE MAHALLESİ 1306 SOKAK NO:14/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11914,11 +10723,6 @@
           <t>ABDİ İPEKÇİ MAH. 3714 SK. NO: 1-1A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11962,11 +10766,6 @@
           <t>YEŞİLÇAM MAHALLESİ 2001 SOKAK NO:132 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12008,11 +10807,6 @@
       <c r="I241" s="2" t="inlineStr">
         <is>
           <t>ADATEPE MAH. 3/10 SK. NO: 1A BUCA / İZMİR</t>
-        </is>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>15 - KONFEKSİYON MALZEMELERİ VE MAKİNALARI GRUBU</t>
         </is>
       </c>
     </row>
